--- a/SSDMS_Requirements/SCGJ_Updated_Excel/Employer.xlsx
+++ b/SSDMS_Requirements/SCGJ_Updated_Excel/Employer.xlsx
@@ -110,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -126,9 +126,16 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -141,6 +148,13 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -150,17 +164,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,51 +475,51 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="76.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" style="1" customWidth="1"/>
-    <col min="6" max="17" width="8.88671875" style="4"/>
+    <col min="5" max="5" width="28.109375" style="3" customWidth="1"/>
+    <col min="6" max="17" width="8.88671875" style="2"/>
     <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -519,7 +536,7 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/SSDMS_Requirements/SCGJ_Updated_Excel/Employer.xlsx
+++ b/SSDMS_Requirements/SCGJ_Updated_Excel/Employer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6552"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>employerName</t>
   </si>
@@ -34,18 +34,6 @@
   </si>
   <si>
     <t>Letters</t>
-  </si>
-  <si>
-    <t>Naman Jain</t>
-  </si>
-  <si>
-    <t>Vijay Nagar,Ghaziabad</t>
-  </si>
-  <si>
-    <t>Ghaziabad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UP </t>
   </si>
   <si>
     <t>employerId</t>
@@ -78,6 +66,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -110,22 +99,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -148,13 +126,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -164,26 +135,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -472,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A3" sqref="A3:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -484,37 +474,36 @@
     <col min="2" max="2" width="19.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="76.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" style="3" customWidth="1"/>
-    <col min="6" max="17" width="8.88671875" style="2"/>
-    <col min="18" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="28.109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" s="7" customFormat="1">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>5</v>
@@ -523,25 +512,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>123</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection password="C97D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C97D" sheet="1" objects="1" scenarios="1" deleteRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
